--- a/CorporateAPIAutomation/target/test-classes/Api_RequestParam_Sheet.xlsx
+++ b/CorporateAPIAutomation/target/test-classes/Api_RequestParam_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19230" windowHeight="6060" tabRatio="981" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19230" windowHeight="6060" tabRatio="981" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,18 @@
     <sheet name="getUserActions" sheetId="4" r:id="rId4"/>
     <sheet name="requestPasswordReset" sheetId="5" r:id="rId5"/>
     <sheet name="verifyPasswordResetToken" sheetId="6" r:id="rId6"/>
-    <sheet name="updatePassword" sheetId="7" r:id="rId7"/>
-    <sheet name="insertRole" sheetId="8" r:id="rId8"/>
-    <sheet name="updateRole" sheetId="9" r:id="rId9"/>
-    <sheet name="deleteRole" sheetId="10" r:id="rId10"/>
-    <sheet name="getRights" sheetId="11" r:id="rId11"/>
-    <sheet name="getRoleUsers" sheetId="12" r:id="rId12"/>
-    <sheet name="getUsers" sheetId="13" r:id="rId13"/>
-    <sheet name="addRightsToRole" sheetId="14" r:id="rId14"/>
-    <sheet name="removeRightsFromRole" sheetId="15" r:id="rId15"/>
-    <sheet name="addUsersToRole" sheetId="16" r:id="rId16"/>
-    <sheet name="removeUsersFromRole" sheetId="17" r:id="rId17"/>
+    <sheet name="updatePasswordLogged" sheetId="7" r:id="rId7"/>
+    <sheet name="updatePassword" sheetId="18" r:id="rId8"/>
+    <sheet name="insertRole" sheetId="8" r:id="rId9"/>
+    <sheet name="updateRole" sheetId="9" r:id="rId10"/>
+    <sheet name="deleteRole" sheetId="10" r:id="rId11"/>
+    <sheet name="getRights" sheetId="11" r:id="rId12"/>
+    <sheet name="getRoleUsers" sheetId="12" r:id="rId13"/>
+    <sheet name="getUsers" sheetId="13" r:id="rId14"/>
+    <sheet name="addRightsToRole" sheetId="14" r:id="rId15"/>
+    <sheet name="removeRightsFromRole" sheetId="15" r:id="rId16"/>
+    <sheet name="addUsersToRole" sheetId="16" r:id="rId17"/>
+    <sheet name="removeUsersFromRole" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="123">
   <si>
     <t>Api</t>
   </si>
@@ -277,48 +278,6 @@
     <t>/authorize/setupService/relateUsersToRole</t>
   </si>
   <si>
-    <t>Verify Password</t>
-  </si>
-  <si>
-    <t>jcarter01.dsi@gmail.com</t>
-  </si>
-  <si>
-    <t>pass1</t>
-  </si>
-  <si>
-    <t>jcarter02.dsi</t>
-  </si>
-  <si>
-    <t>pass2</t>
-  </si>
-  <si>
-    <t>jcarter03.dsi</t>
-  </si>
-  <si>
-    <t>pass3</t>
-  </si>
-  <si>
-    <t>jcarter04.dsi</t>
-  </si>
-  <si>
-    <t>pass4</t>
-  </si>
-  <si>
-    <t>jcarter05.dsi</t>
-  </si>
-  <si>
-    <t>pass5</t>
-  </si>
-  <si>
-    <t>jcarter06.dsi</t>
-  </si>
-  <si>
-    <t>pass6</t>
-  </si>
-  <si>
-    <t>jcarter07.dsi</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
@@ -331,9 +290,6 @@
     <t>067e61623b6f4ae2a1712470b63dff00</t>
   </si>
   <si>
-    <t>LoggedIn</t>
-  </si>
-  <si>
     <t>LoggedOut</t>
   </si>
   <si>
@@ -346,12 +302,6 @@
     <t>user02pass</t>
   </si>
   <si>
-    <t>jcarter08.dsi</t>
-  </si>
-  <si>
-    <t>jcarter09.dsi</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -428,6 +378,33 @@
   </si>
   <si>
     <t>ActionIds</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>74Oe1VioEd+elt61qc2HFg==</t>
+  </si>
+  <si>
+    <t>74Oe1VioEd+elt61qc2HFh==</t>
+  </si>
+  <si>
+    <t>74Oe1VioEd+elt61qc2HFi==</t>
+  </si>
+  <si>
+    <t>anik</t>
+  </si>
+  <si>
+    <t>123456789</t>
   </si>
 </sst>
 </file>
@@ -624,23 +601,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -703,9 +665,23 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,1503 +997,1503 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="6"/>
-    <col min="2" max="2" width="7.42578125" style="6"/>
-    <col min="3" max="3" width="12.7109375" style="6"/>
-    <col min="4" max="4" width="11.7109375" style="6"/>
-    <col min="5" max="5" width="14.140625" style="6"/>
-    <col min="6" max="6" width="17.140625" style="6"/>
-    <col min="7" max="7" width="17.7109375" style="6"/>
-    <col min="8" max="8" width="19" style="6"/>
-    <col min="9" max="9" width="11.140625" style="6"/>
-    <col min="10" max="10" width="19.5703125" style="6"/>
-    <col min="11" max="11" width="12.42578125" style="6"/>
-    <col min="12" max="12" width="16.42578125" style="6"/>
-    <col min="13" max="13" width="17.140625" style="6"/>
-    <col min="14" max="1025" width="14.140625" style="6"/>
+    <col min="1" max="1" width="20.28515625" style="1"/>
+    <col min="2" max="2" width="7.42578125" style="1"/>
+    <col min="3" max="3" width="12.7109375" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1"/>
+    <col min="5" max="5" width="14.140625" style="1"/>
+    <col min="6" max="6" width="17.140625" style="1"/>
+    <col min="7" max="7" width="17.7109375" style="1"/>
+    <col min="8" max="8" width="19" style="1"/>
+    <col min="9" max="9" width="11.140625" style="1"/>
+    <col min="10" max="10" width="19.5703125" style="1"/>
+    <col min="11" max="11" width="12.42578125" style="1"/>
+    <col min="12" max="12" width="16.42578125" style="1"/>
+    <col min="13" max="13" width="17.140625" style="1"/>
+    <col min="14" max="1025" width="14.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
         <v>8</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="7">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>12345678</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9">
         <v>8</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="10">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="9">
         <v>8</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="10">
         <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9">
         <v>32</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="5">
         <v>12345678</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <v>8</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="7">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="15">
         <v>12345678</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20">
+      <c r="K10" s="15"/>
+      <c r="L10" s="15">
         <v>8</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="16">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="20" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="15">
         <v>12345678</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="15">
         <v>8</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="16">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="9">
         <v>32</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="24" t="s">
+      <c r="C13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="5">
         <v>1000</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
         <v>-1</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="5">
         <v>1</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="L14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>0</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>0</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="G15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="21" t="s">
+      <c r="L15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="15">
         <v>1</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="21" t="s">
+      <c r="L16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="20" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="21" t="s">
+      <c r="L17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="20" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="15">
         <v>1</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="21" t="s">
+      <c r="L18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="9">
         <v>8</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="10">
         <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="12" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20" t="s">
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="21" t="s">
+      <c r="L22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="15" t="s">
+      <c r="L23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="20" t="s">
+      <c r="C24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="15">
         <v>10</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="21" t="s">
+      <c r="K24" s="15"/>
+      <c r="L24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="20" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="15">
         <v>2</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="21" t="s">
+      <c r="K25" s="15"/>
+      <c r="L25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="20" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20" t="s">
+      <c r="J26" s="15"/>
+      <c r="K26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="21" t="s">
+      <c r="L26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="20" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20" t="s">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="21" t="s">
+      <c r="L27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="15" t="s">
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="23" t="s">
+      <c r="C29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="18">
         <v>1</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="24" t="s">
+      <c r="K29" s="18"/>
+      <c r="L29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="23" t="s">
+      <c r="C30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="24" t="s">
+      <c r="L30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="5">
         <v>1000</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="5">
         <v>-1</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="10" t="s">
+      <c r="G31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="12" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="15">
         <v>0</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="15">
         <v>0</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="21"/>
+      <c r="G32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="5">
         <v>1000</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="5">
         <v>-1</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="12"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="15">
         <v>0</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="20" t="s">
+      <c r="G35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="15">
         <v>8</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="16">
         <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="20" t="s">
+      <c r="F36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="21"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="F38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="5">
         <v>1</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="12" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="21"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="21"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="10" t="s">
+      <c r="F41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="5">
         <v>1</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="12" t="s">
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="15" t="s">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2548,50 +2524,121 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="14.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>10</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="B3" s="24">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="B4" s="24">
+        <v>10</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>4</v>
+      <c r="B6" s="24">
+        <v>10</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2608,6 +2655,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -2618,37 +2723,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>115</v>
+      <c r="A5" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="b">
+      <c r="A7" s="24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2657,7 +2762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2674,19 +2779,19 @@
     <col min="5" max="8" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+    <row r="1" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2695,16 +2800,16 @@
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2714,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2737,30 +2842,30 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="29">
+        <v>107</v>
+      </c>
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>10</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>62</v>
       </c>
       <c r="E5">
@@ -2771,37 +2876,37 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>125</v>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>0</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="24">
         <v>-1</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>125</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +2920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -2836,39 +2941,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
@@ -2880,32 +2985,32 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>100</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="C3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="24">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="24">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="24">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
         <v>71</v>
@@ -2915,107 +3020,107 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="D4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>10</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <v>4</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="24">
         <v>0</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="24">
         <v>-1</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3028,7 +3133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -3042,152 +3147,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="24">
         <v>3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <v>4</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="24">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="24">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="24">
         <v>4</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="24">
         <v>1</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="24">
         <v>2</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="24">
         <v>3</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="24">
         <v>4</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="24">
         <v>5</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="24">
         <v>2</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="24">
         <v>3</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="24">
         <v>4</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <v>4</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <v>5</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24">
         <v>6</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="24">
         <v>3</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="24">
         <v>4</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="24">
         <v>5</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3202,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -3216,152 +3321,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="24">
         <v>3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <v>4</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="24">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="24">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="24">
         <v>4</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="24">
         <v>1</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="24">
         <v>2</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="24">
         <v>3</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="24">
         <v>4</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="24">
         <v>5</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="24">
         <v>2</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="24">
         <v>3</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="24">
         <v>4</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <v>4</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <v>5</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24">
         <v>6</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="24">
         <v>3</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="24">
         <v>4</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="24">
         <v>5</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3376,7 +3481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3390,106 +3495,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="24">
         <v>3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <v>4</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="24">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="24">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="24">
         <v>4</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <v>4</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <v>5</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3503,121 +3608,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="3.7109375" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="8" width="3.7109375" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="24">
         <v>3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="24">
         <v>4</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="24">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="24">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="24">
         <v>4</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="24">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <v>4</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="24">
         <v>5</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3633,135 +3738,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="26"/>
-    <col min="2" max="2" width="20.42578125" style="26"/>
-    <col min="3" max="3" width="15.85546875"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="19.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="21"/>
+    <col min="3" max="1019" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="29">
-        <v>1234</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="29"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3777,19 +3809,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="27"/>
+      <c r="A1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3809,16 +3841,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="A1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3842,28 +3874,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="A1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3882,178 +3914,155 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.5703125"/>
-    <col min="4" max="4" width="35.42578125" style="26"/>
-    <col min="5" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="35.42578125" style="21"/>
+    <col min="2" max="1022" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="27" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="26" t="s">
-        <v>24</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.5703125"/>
-    <col min="5" max="5" width="14.85546875"/>
-    <col min="6" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="17"/>
-    <col min="8" max="8" width="10.7109375"/>
-    <col min="9" max="9" width="11.140625"/>
-    <col min="10" max="10" width="17"/>
-    <col min="11" max="11" width="35.42578125"/>
-    <col min="12" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="14.85546875"/>
+    <col min="2" max="2" width="17.42578125"/>
+    <col min="3" max="3" width="17"/>
+    <col min="4" max="4" width="10.7109375"/>
+    <col min="5" max="5" width="11.140625"/>
+    <col min="6" max="6" width="17"/>
+    <col min="7" max="7" width="35.42578125"/>
+    <col min="8" max="1021" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="B1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="C1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="27" t="s">
+      <c r="D1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="G1" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="G4" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>101</v>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4063,6 +4072,60 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4091,186 +4154,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>115</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="29"/>
-    <col min="3" max="3" width="14.28515625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29">
-        <v>10</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29">
-        <v>10</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29">
-        <v>10</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29">
-        <v>10</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="29">
-        <v>10</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
